--- a/figures/BMP_Table2/BMP_Table2.xlsx
+++ b/figures/BMP_Table2/BMP_Table2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Util\Google Drive\05_BOLSA_DOUTORAMENTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Util\Google Drive\05_BOLSA_DOUTORAMENTO\Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>Bottle contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Substrate (g)</t>
   </si>
@@ -38,36 +35,6 @@
     <t>Headspace (mL)</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Control (only water)</t>
   </si>
   <si>
@@ -83,12 +50,6 @@
     <t>Swine Wastewater (Weaners)</t>
   </si>
   <si>
-    <t>Swine wastewatr (Fattening)</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Total volume (mL)</t>
   </si>
   <si>
@@ -102,6 +63,33 @@
   </si>
   <si>
     <t>Inoculum VS (g)</t>
+  </si>
+  <si>
+    <t>Swine wastewater (Fattening)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Reactor ID</t>
+  </si>
+  <si>
+    <t>Reactor contents</t>
   </si>
 </sst>
 </file>
@@ -429,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,40 +434,40 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>600</v>
@@ -497,7 +485,7 @@
         <v>0.17870813397129184</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G10" si="0">C2-D2</f>
+        <f t="shared" ref="G2:G6" si="0">C2-D2</f>
         <v>4.3062200956937886</v>
       </c>
       <c r="H2" s="5">
@@ -515,37 +503,37 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>600</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-(3*600*0.0003/(0.1245+(3*0.0003)))</f>
-        <v>595.69377990430621</v>
+        <f>C3-(3*600*0.0018/(0.1245+(3*0.0018)))</f>
+        <v>575.05773672055432</v>
       </c>
       <c r="E3" s="5">
-        <f>D3*0.07/100</f>
-        <v>0.4169856459330144</v>
-      </c>
-      <c r="F3" s="4">
-        <f>D3*0.0003</f>
-        <v>0.17870813397129184</v>
+        <f>D3*0.48/100</f>
+        <v>2.7602771362586607</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3*0.0018</f>
+        <v>1.0351039260969976</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>4.3062200956937886</v>
+        <v>24.942263279445683</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H11" si="1">G3*20.44/100</f>
-        <v>0.88019138755981041</v>
+        <f t="shared" ref="H3:H7" si="1">G3*20.44/100</f>
+        <v>5.0981986143186981</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I11" si="2">G3*0.1245</f>
-        <v>0.53612440191387667</v>
+        <f t="shared" ref="I3:I7" si="2">G3*0.1245</f>
+        <v>3.1053117782909876</v>
       </c>
       <c r="J3" s="2">
         <v>400</v>
@@ -554,37 +542,37 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>600</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-(3*600*0.0018/(0.1245+(3*0.0018)))</f>
-        <v>575.05773672055432</v>
+        <f>C4-(3*600*0.0023/(0.1245+(3*0.0023)))</f>
+        <v>568.49315068493149</v>
       </c>
       <c r="E4" s="5">
-        <f>D4*0.48/100</f>
-        <v>2.7602771362586607</v>
+        <f>D4*0.63/100</f>
+        <v>3.5815068493150681</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*0.0018</f>
-        <v>1.0351039260969976</v>
+        <f>D4*0.0023</f>
+        <v>1.3075342465753423</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>24.942263279445683</v>
+        <v>31.506849315068507</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>5.0981986143186981</v>
+        <v>6.4400000000000031</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="2"/>
-        <v>3.1053117782909876</v>
+        <v>3.9226027397260292</v>
       </c>
       <c r="J4" s="2">
         <v>400</v>
@@ -593,37 +581,37 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>600</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-(3*600*0.0018/(0.1245+(3*0.0018)))</f>
-        <v>575.05773672055432</v>
+        <f>C5-(3*600*0.0062/(0.1245+(3*0.0062)))</f>
+        <v>522.01257861635224</v>
       </c>
       <c r="E5" s="5">
-        <f>D5*0.48/100</f>
-        <v>2.7602771362586607</v>
+        <f>D5*1.31/100</f>
+        <v>6.8383647798742153</v>
       </c>
       <c r="F5" s="2">
-        <f>D5*0.0018</f>
-        <v>1.0351039260969976</v>
+        <f>D5*0.0062</f>
+        <v>3.2364779874213836</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>24.942263279445683</v>
+        <v>77.987421383647757</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>5.0981986143186981</v>
+        <v>15.940628930817603</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="2"/>
-        <v>3.1053117782909876</v>
+        <v>9.7094339622641463</v>
       </c>
       <c r="J5" s="2">
         <v>400</v>
@@ -632,37 +620,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>600</v>
       </c>
-      <c r="D6" s="3">
-        <f>C6-(3*600*0.0023/(0.1245+(3*0.0023)))</f>
-        <v>568.49315068493149</v>
-      </c>
-      <c r="E6" s="5">
-        <f>D6*0.63/100</f>
-        <v>3.5815068493150681</v>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>D6*0.0023</f>
-        <v>1.3075342465753423</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>31.506849315068507</v>
+        <v>600</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>6.4400000000000031</v>
+        <v>122.64</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="2"/>
-        <v>3.9226027397260292</v>
+        <v>74.7</v>
       </c>
       <c r="J6" s="2">
         <v>400</v>
@@ -671,194 +656,41 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>600</v>
       </c>
-      <c r="D7" s="3">
-        <f>C7-(3*600*0.0023/(0.1245+(3*0.0023)))</f>
-        <v>568.49315068493149</v>
-      </c>
-      <c r="E7" s="5">
-        <f>D7*0.63/100</f>
-        <v>3.5815068493150681</v>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>D7*0.0023</f>
-        <v>1.3075342465753423</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>31.506849315068507</v>
-      </c>
-      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>6.4400000000000031</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="2"/>
-        <v>3.9226027397260292</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>400</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>600</v>
-      </c>
-      <c r="D8" s="3">
-        <f>C8-(3*600*0.0062/(0.1245+(3*0.0062)))</f>
-        <v>522.01257861635224</v>
-      </c>
-      <c r="E8" s="5">
-        <f>D8*1.31/100</f>
-        <v>6.8383647798742153</v>
-      </c>
-      <c r="F8" s="2">
-        <f>D8*0.0062</f>
-        <v>3.2364779874213836</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>77.987421383647757</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="1"/>
-        <v>15.940628930817603</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="2"/>
-        <v>9.7094339622641463</v>
-      </c>
-      <c r="J8" s="2">
-        <v>400</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>600</v>
-      </c>
-      <c r="D9" s="3">
-        <f>C9-(3*600*0.0062/(0.1245+(3*0.0062)))</f>
-        <v>522.01257861635224</v>
-      </c>
-      <c r="E9" s="5">
-        <f>D9*1.31/100</f>
-        <v>6.8383647798742153</v>
-      </c>
-      <c r="F9" s="2">
-        <f>D9*0.0062</f>
-        <v>3.2364779874213836</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>77.987421383647757</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="1"/>
-        <v>15.940628930817603</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="2"/>
-        <v>9.7094339622641463</v>
-      </c>
-      <c r="J9" s="2">
-        <v>400</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>600</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="1"/>
-        <v>122.64</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="2"/>
-        <v>74.7</v>
-      </c>
-      <c r="J10" s="2">
-        <v>400</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>600</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>400</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="5"/>
+      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/figures/BMP_Table2/BMP_Table2.xlsx
+++ b/figures/BMP_Table2/BMP_Table2.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,8 +520,7 @@
         <v>2.7602771362586607</v>
       </c>
       <c r="F3" s="2">
-        <f>D3*0.0018</f>
-        <v>1.0351039260969976</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
@@ -559,8 +558,7 @@
         <v>3.5815068493150681</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*0.0023</f>
-        <v>1.3075342465753423</v>
+        <v>1.3069999999999999</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -598,8 +596,7 @@
         <v>6.8383647798742153</v>
       </c>
       <c r="F5" s="2">
-        <f>D5*0.0062</f>
-        <v>3.2364779874213836</v>
+        <v>3.2360000000000002</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
